--- a/Data/Processing/2024-02-02/COFORGE.xlsx
+++ b/Data/Processing/2024-02-02/COFORGE.xlsx
@@ -1263,13 +1263,13 @@
         <v>44979</v>
       </c>
       <c r="B15">
-        <v>4246.99</v>
+        <v>4246.98</v>
       </c>
       <c r="C15">
         <v>4315.13</v>
       </c>
       <c r="D15">
-        <v>4226.15</v>
+        <v>4226.14</v>
       </c>
       <c r="E15">
         <v>4289.01</v>
@@ -1293,7 +1293,7 @@
         <v>-0.49</v>
       </c>
       <c r="L15">
-        <v>-39.45</v>
+        <v>-39.46</v>
       </c>
       <c r="M15">
         <v>-0.6000000000000001</v>
@@ -2769,7 +2769,7 @@
         <v>4021.15</v>
       </c>
       <c r="D45">
-        <v>3945.75</v>
+        <v>3945.74</v>
       </c>
       <c r="E45">
         <v>3955.47</v>
@@ -3419,7 +3419,7 @@
         <v>4154.49</v>
       </c>
       <c r="D58">
-        <v>4039.47</v>
+        <v>4039.48</v>
       </c>
       <c r="E58">
         <v>4079.72</v>
@@ -4022,7 +4022,7 @@
         <v>4143.1</v>
       </c>
       <c r="E70">
-        <v>4173.51</v>
+        <v>4173.52</v>
       </c>
       <c r="F70">
         <v>4181.3</v>
@@ -4052,7 +4052,7 @@
         <v>1.88</v>
       </c>
       <c r="O70">
-        <v>3918.590227272727</v>
+        <v>3918.590454545455</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>4244.96</v>
       </c>
       <c r="F71">
-        <v>4173.51</v>
+        <v>4173.52</v>
       </c>
       <c r="G71">
         <v>343809</v>
@@ -4093,7 +4093,7 @@
         <v>-0.52</v>
       </c>
       <c r="L71">
-        <v>21.69</v>
+        <v>21.68</v>
       </c>
       <c r="M71">
         <v>-0.5800000000000001</v>
@@ -4102,7 +4102,7 @@
         <v>2.3</v>
       </c>
       <c r="O71">
-        <v>3923.378181818181</v>
+        <v>3923.378409090909</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>2.78</v>
       </c>
       <c r="O72">
-        <v>3933.917727272727</v>
+        <v>3933.917954545455</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>2.97</v>
       </c>
       <c r="O73">
-        <v>3942.322272727273</v>
+        <v>3942.3225</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>1.64</v>
       </c>
       <c r="O74">
-        <v>3951.818181818182</v>
+        <v>3951.818409090909</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>2.53</v>
       </c>
       <c r="O75">
-        <v>3961.159318181818</v>
+        <v>3961.159545454545</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>4.68</v>
       </c>
       <c r="O76">
-        <v>3977.005681818182</v>
+        <v>3977.005909090909</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>2.33</v>
       </c>
       <c r="O77">
-        <v>3993.347045454545</v>
+        <v>3993.347272727273</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>1.82</v>
       </c>
       <c r="O78">
-        <v>4008.652727272727</v>
+        <v>4008.652954545454</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>4.45</v>
       </c>
       <c r="O79">
-        <v>4027.229545454545</v>
+        <v>4027.229772727273</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>1.37</v>
       </c>
       <c r="O80">
-        <v>4047.044772727273</v>
+        <v>4047.045</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>1.96</v>
       </c>
       <c r="O81">
-        <v>4068.959772727273</v>
+        <v>4068.96</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>1.55</v>
       </c>
       <c r="O82">
-        <v>4091.758181818182</v>
+        <v>4091.758409090909</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>3.92</v>
       </c>
       <c r="O83">
-        <v>4109.167727272727</v>
+        <v>4109.167954545454</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.21</v>
       </c>
       <c r="O84">
-        <v>4123.950227272727</v>
+        <v>4123.950454545455</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>2.01</v>
       </c>
       <c r="O85">
-        <v>4136.396818181819</v>
+        <v>4136.397045454546</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>4399.99</v>
       </c>
       <c r="D86">
-        <v>4302.7</v>
+        <v>4302.71</v>
       </c>
       <c r="E86">
         <v>4373.8</v>
@@ -4852,7 +4852,7 @@
         <v>2.23</v>
       </c>
       <c r="O86">
-        <v>4144.235227272728</v>
+        <v>4144.235454545455</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>4.18</v>
       </c>
       <c r="O87">
-        <v>4156.066136363636</v>
+        <v>4156.066363636364</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>4542.48</v>
       </c>
       <c r="D88">
-        <v>4465.08</v>
+        <v>4465.09</v>
       </c>
       <c r="E88">
         <v>4532.46</v>
@@ -4952,7 +4952,7 @@
         <v>1.72</v>
       </c>
       <c r="O88">
-        <v>4167.912272727273</v>
+        <v>4167.912499999999</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>3.2</v>
       </c>
       <c r="O89">
-        <v>4182.19159090909</v>
+        <v>4182.191818181818</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>1.9</v>
       </c>
       <c r="O90">
-        <v>4194.289545454546</v>
+        <v>4194.289772727273</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>1.51</v>
       </c>
       <c r="O91">
-        <v>4207.461590909092</v>
+        <v>4207.461818181819</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>1.5</v>
       </c>
       <c r="O92">
-        <v>4222.9975</v>
+        <v>4222.997727272727</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>4.13</v>
       </c>
       <c r="O93">
-        <v>4235.391590909091</v>
+        <v>4235.391818181818</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>2.14</v>
       </c>
       <c r="O94">
-        <v>4251.647954545455</v>
+        <v>4251.648181818182</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>2.31</v>
       </c>
       <c r="O95">
-        <v>4268.309090909091</v>
+        <v>4268.309318181819</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>1.59</v>
       </c>
       <c r="O96">
-        <v>4283.786818181818</v>
+        <v>4283.787045454545</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>4.04</v>
       </c>
       <c r="O97">
-        <v>4300.317272727272</v>
+        <v>4300.3175</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>2.13</v>
       </c>
       <c r="O98">
-        <v>4317.988181818181</v>
+        <v>4317.988409090909</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>4335.350454545455</v>
+        <v>4335.350681818181</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>1.84</v>
       </c>
       <c r="O100">
-        <v>4350.655</v>
+        <v>4350.655227272728</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1.93</v>
       </c>
       <c r="O101">
-        <v>4362.361590909091</v>
+        <v>4362.361818181817</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>1.77</v>
       </c>
       <c r="O102">
-        <v>4375.824090909091</v>
+        <v>4375.824318181818</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>1.78</v>
       </c>
       <c r="O103">
-        <v>4390.371363636364</v>
+        <v>4390.371590909091</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>1.2</v>
       </c>
       <c r="O104">
-        <v>4405.238181818182</v>
+        <v>4405.23840909091</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>2.99</v>
       </c>
       <c r="O105">
-        <v>4418.611363636363</v>
+        <v>4418.611590909091</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>2.69</v>
       </c>
       <c r="O106">
-        <v>4430.202727272727</v>
+        <v>4430.202954545454</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>3.03</v>
       </c>
       <c r="O107">
-        <v>4443.528181818182</v>
+        <v>4443.52840909091</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>45119</v>
       </c>
       <c r="B108">
-        <v>4668.5</v>
+        <v>4668.49</v>
       </c>
       <c r="C108">
         <v>4683.38</v>
@@ -5943,7 +5943,7 @@
         <v>-2.26</v>
       </c>
       <c r="L108">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="M108">
         <v>1.07</v>
@@ -5952,7 +5952,7 @@
         <v>2.53</v>
       </c>
       <c r="O108">
-        <v>4455.353863636364</v>
+        <v>4455.354090909092</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>3.42</v>
       </c>
       <c r="O109">
-        <v>4469.576590909091</v>
+        <v>4469.576818181818</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>3.92</v>
       </c>
       <c r="O110">
-        <v>4488.522727272727</v>
+        <v>4488.522954545455</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>2.93</v>
       </c>
       <c r="O111">
-        <v>4507.168863636363</v>
+        <v>4507.169090909091</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>2.45</v>
       </c>
       <c r="O112">
-        <v>4524.349318181818</v>
+        <v>4524.349545454545</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>2.13</v>
       </c>
       <c r="O113">
-        <v>4539.277045454545</v>
+        <v>4539.277272727273</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>1.7</v>
       </c>
       <c r="O118">
-        <v>4588.3075</v>
+        <v>4588.307500000001</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1.91</v>
       </c>
       <c r="O119">
-        <v>4597.225227272728</v>
+        <v>4597.225227272727</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>3.37</v>
       </c>
       <c r="O122">
-        <v>4618.450227272727</v>
+        <v>4618.450227272728</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>2.19</v>
       </c>
       <c r="O125">
-        <v>4635.164090909091</v>
+        <v>4635.164090909092</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>3.14</v>
       </c>
       <c r="O133">
-        <v>4747.481363636364</v>
+        <v>4747.481363636363</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>2.74</v>
       </c>
       <c r="O140">
-        <v>4833.493636363636</v>
+        <v>4833.493636363637</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>2.89</v>
       </c>
       <c r="O142">
-        <v>4861.995681818183</v>
+        <v>4861.995681818182</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>1.7</v>
       </c>
       <c r="O149">
-        <v>4997.276590909091</v>
+        <v>4997.27659090909</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>2.05</v>
       </c>
       <c r="O152">
-        <v>5054.1075</v>
+        <v>5054.107499999999</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1.73</v>
       </c>
       <c r="O153">
-        <v>5070.412499999999</v>
+        <v>5070.4125</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>1.75</v>
       </c>
       <c r="O155">
-        <v>5100.283863636364</v>
+        <v>5100.283863636363</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>1.47</v>
       </c>
       <c r="O161">
-        <v>5171.184999999999</v>
+        <v>5171.185</v>
       </c>
       <c r="P161">
         <v>1</v>
@@ -9002,7 +9002,7 @@
         <v>1.97</v>
       </c>
       <c r="O169">
-        <v>5245.198181818182</v>
+        <v>5245.198181818181</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>3.28</v>
       </c>
       <c r="O170">
-        <v>5249.998181818181</v>
+        <v>5249.998181818182</v>
       </c>
       <c r="P170">
         <v>1</v>
@@ -9102,7 +9102,7 @@
         <v>2.34</v>
       </c>
       <c r="O171">
-        <v>5252.624545454545</v>
+        <v>5252.624545454546</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>1.75</v>
       </c>
       <c r="O173">
-        <v>5248.819772727273</v>
+        <v>5248.819772727272</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>3.66</v>
       </c>
       <c r="O177">
-        <v>5240.592045454545</v>
+        <v>5240.592045454546</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>2.15</v>
       </c>
       <c r="O184">
-        <v>5220.613409090909</v>
+        <v>5220.61340909091</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>1.14</v>
       </c>
       <c r="O185">
-        <v>5217.216818181818</v>
+        <v>5217.216818181819</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>1.69</v>
       </c>
       <c r="O186">
-        <v>5212.782272727272</v>
+        <v>5212.782272727273</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>1.26</v>
       </c>
       <c r="O187">
-        <v>5205.271136363637</v>
+        <v>5205.271136363636</v>
       </c>
       <c r="P187">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>4.46</v>
       </c>
       <c r="O193">
-        <v>5152.5875</v>
+        <v>5152.587500000001</v>
       </c>
       <c r="P193">
         <v>1</v>
@@ -10302,7 +10302,7 @@
         <v>2.55</v>
       </c>
       <c r="O195">
-        <v>5162.640681818182</v>
+        <v>5162.640681818181</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>3.44</v>
       </c>
       <c r="O196">
-        <v>5169.273636363636</v>
+        <v>5169.273636363637</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>1.41</v>
       </c>
       <c r="O199">
-        <v>5176.58909090909</v>
+        <v>5176.589090909091</v>
       </c>
       <c r="P199">
         <v>0</v>
@@ -10552,7 +10552,7 @@
         <v>1.83</v>
       </c>
       <c r="O200">
-        <v>5181.6125</v>
+        <v>5181.612499999999</v>
       </c>
       <c r="P200">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>1.84</v>
       </c>
       <c r="O208">
-        <v>5270.916363636364</v>
+        <v>5270.916363636363</v>
       </c>
       <c r="P208">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>2.02</v>
       </c>
       <c r="O211">
-        <v>5317.191136363636</v>
+        <v>5317.191136363635</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -11252,7 +11252,7 @@
         <v>5.73</v>
       </c>
       <c r="O214">
-        <v>5385.279545454546</v>
+        <v>5385.279545454545</v>
       </c>
       <c r="P214">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>2.29</v>
       </c>
       <c r="O215">
-        <v>5416.267500000001</v>
+        <v>5416.2675</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -11352,7 +11352,7 @@
         <v>2.78</v>
       </c>
       <c r="O216">
-        <v>5445.487272727273</v>
+        <v>5445.487272727272</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -11402,7 +11402,7 @@
         <v>5.43</v>
       </c>
       <c r="O217">
-        <v>5468.622499999999</v>
+        <v>5468.6225</v>
       </c>
       <c r="P217">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>1.81</v>
       </c>
       <c r="O221">
-        <v>5577.882500000001</v>
+        <v>5577.8825</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>3.48</v>
       </c>
       <c r="O225">
-        <v>5694.345454545454</v>
+        <v>5694.345454545455</v>
       </c>
       <c r="P225">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>2.21</v>
       </c>
       <c r="O231">
-        <v>5831.654545454545</v>
+        <v>5831.654545454546</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>5.15</v>
       </c>
       <c r="O237">
-        <v>6019.394318181819</v>
+        <v>6019.394318181818</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -13721,7 +13721,7 @@
         <v>3.07</v>
       </c>
       <c r="O244">
-        <v>6122.202272727273</v>
+        <v>6122.202272727272</v>
       </c>
       <c r="P244">
         <v>0</v>
